--- a/reg.xlsx
+++ b/reg.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A73F115-6EF7-4A36-B7C0-5D7E1F2F1AD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43DF833-BB1E-404A-8628-431F2EE2CBFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has Reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,24 +588,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="10.9140625" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="10.9140625" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -607,41 +615,50 @@
       <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -651,88 +668,112 @@
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="5" t="s">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J5" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="5" t="s">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J7" t="s">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>12</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J8" s="2" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>12</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J9" s="2" t="s">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -742,220 +783,274 @@
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="5">
+      <c r="I11" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J12" s="2" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>12</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J13" s="2" t="s">
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>12</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J14" s="2" t="s">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>35</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J15" s="2"/>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J16" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J17" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J18" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J19" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J20" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J21" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J22" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J23" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J24" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J25" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J26" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J27" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J28" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J29" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J30" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J31" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J32" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J59" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:XFD2 A2">
+  <conditionalFormatting sqref="I2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:N2 Q2:XFD2 C2 E2:H2 A2">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:P2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/reg.xlsx
+++ b/reg.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43DF833-BB1E-404A-8628-431F2EE2CBFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480CF50A-8682-4D10-A1F1-B2B9436FA87E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Block</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -591,7 +587,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -610,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>2</v>
@@ -649,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="O2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>5</v>
@@ -660,7 +656,7 @@
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
         <v>32</v>
@@ -672,27 +668,27 @@
     </row>
     <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
         <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -706,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -763,8 +759,8 @@
       <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" t="s">
-        <v>21</v>
+      <c r="N9">
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -775,19 +771,19 @@
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3">
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>9</v>
@@ -801,16 +797,16 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12" t="s">
         <v>12</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -821,7 +817,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>20</v>
@@ -841,13 +837,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
         <v>14</v>
